--- a/referees.xlsx
+++ b/referees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonGC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11666D-4CE9-4FFE-A72D-D1C657707A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0392F86A-A44B-4001-8185-FFDE1B3E0EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Sara Bradley</t>
   </si>
   <si>
-    <t>Sophie Scott</t>
-  </si>
-  <si>
     <t>Viv Dickinson</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>NR31 0LN</t>
+  </si>
+  <si>
+    <t>Sophie Evelyn</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -613,13 +613,13 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -670,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -679,10 +679,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -693,19 +693,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -716,13 +716,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -736,16 +736,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -831,19 +831,19 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -854,16 +854,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -880,10 +880,10 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -909,10 +909,10 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -929,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -938,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/referees.xlsx
+++ b/referees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonGC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0392F86A-A44B-4001-8185-FFDE1B3E0EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F266B474-881E-46D7-9370-773444932939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>Event Start</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Referee 6</t>
   </si>
   <si>
-    <t>Horncastle</t>
-  </si>
-  <si>
     <t>Maverick Gym</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Stag Fitness Centre</t>
   </si>
   <si>
-    <t>Lincoln Lifting</t>
-  </si>
-  <si>
     <t>Spartan Gym</t>
   </si>
   <si>
@@ -124,15 +118,6 @@
     <t>Chris Brown (TBC)</t>
   </si>
   <si>
-    <t>Sue Giles</t>
-  </si>
-  <si>
-    <t>Mike Jones</t>
-  </si>
-  <si>
-    <t>Sarah Brearley</t>
-  </si>
-  <si>
     <t>Tom Wright</t>
   </si>
   <si>
@@ -142,42 +127,21 @@
     <t>Mitch Ravenscroft (TBC)</t>
   </si>
   <si>
-    <t>Karen Towersey</t>
-  </si>
-  <si>
-    <t>Amanda Riman</t>
-  </si>
-  <si>
-    <t>Adam Riman, Relief</t>
-  </si>
-  <si>
     <t>Michelle Vettese</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam Riman </t>
-  </si>
-  <si>
     <t>Adam Hindle (PM)</t>
   </si>
   <si>
     <t>Karolina Piwonska</t>
   </si>
   <si>
-    <t>LN9 2NF</t>
-  </si>
-  <si>
     <t>AL7 4ST</t>
   </si>
   <si>
     <t>WA3 6QT</t>
   </si>
   <si>
-    <t>NE29 7FN</t>
-  </si>
-  <si>
-    <t>LN3 4NT</t>
-  </si>
-  <si>
     <t>MK12 6HS</t>
   </si>
   <si>
@@ -185,6 +149,30 @@
   </si>
   <si>
     <t>Sophie Evelyn</t>
+  </si>
+  <si>
+    <t>Referee 7</t>
+  </si>
+  <si>
+    <t>Referee 8</t>
+  </si>
+  <si>
+    <t>Viking Strength Gym</t>
+  </si>
+  <si>
+    <t>Amanda Organizing</t>
+  </si>
+  <si>
+    <t>Notts based refs</t>
+  </si>
+  <si>
+    <t>Horncastle Powerlifting</t>
+  </si>
+  <si>
+    <t>Notts &amp; Lincoln Refs</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -246,12 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,18 +545,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,353 +590,492 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45865.416666666657</v>
+        <v>45928.416666666657</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45872.416666666657</v>
+        <v>45935.375</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45879.416666666657</v>
+        <v>45949.416666666664</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45962.375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45886.375</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45963.375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45977.416666666657</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45893.416666666657</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45907.416666666657</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45928.416666666657</v>
+        <v>45984.416666666657</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45991.375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45996.375</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45997.375</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45935.375</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45998.375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>46033.416666666664</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>46054.416666666664</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>46068.375</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>46082.416666666664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>46089.416666666664</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>46096.375</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>46110.416666666664</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>46124.416666666664</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>46131.416666666664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>46145.375</v>
+      </c>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45962.375</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>46159.375</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>46187.375</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>46215.416666666664</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>46265.416666666664</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45963.375</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45977.416666666657</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45984.416666666657</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45991.375</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45997.375</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45998.375</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
